--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -1,16 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Guardian Insurance Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ZIPs_Only" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="EE">ZIPs_Only!$A$1:$A$77</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -22,7 +20,7 @@
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -55,16 +53,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -211,6 +213,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -245,6 +248,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -279,20 +283,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -414,7 +414,46 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -432,54 +471,66 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10.83203125" customWidth="1" min="1" max="1"/>
+    <col width="20.83203125" customWidth="1" min="2" max="2"/>
+    <col width="18.83203125" customWidth="1" min="3" max="3"/>
+    <col width="25.83203125" customWidth="1" min="4" max="4"/>
+    <col width="12.83203125" customWidth="1" min="5" max="5"/>
+    <col width="8.83203125" customWidth="1" min="6" max="6"/>
+    <col width="8.83203125" customWidth="1" min="7" max="7"/>
+    <col width="18.83203125" customWidth="1" min="8" max="8"/>
+    <col width="18.83203125" customWidth="1" min="9" max="9"/>
+    <col width="18.83203125" customWidth="1" min="10" max="10"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Employee ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Full Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Department</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Position</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Salary</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Years of Service</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>ZIP</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Office Location</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Performance Rating</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Insurance Sales (Annual)</t>
         </is>
@@ -493,42 +544,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carol Hall</t>
+          <t>Steven Adams</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Claims Processing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sales Manager</t>
+          <t>Claims Adjuster</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>93256</v>
+        <v>55523</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>90001</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Houston, TX</t>
+          <t>Los Angeles, CA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Unsatisfactory</t>
+          <t>Exceeds Expectations</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1451666</v>
+        <v>161431</v>
       </c>
     </row>
     <row r="3">
@@ -539,42 +590,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paul Green</t>
+          <t>Jennifer Hernandez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Legal</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Regulatory Specialist</t>
+          <t>IT Specialist</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>58005</v>
+        <v>76753</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>95106</t>
+          <t>00000</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>Phoenix, AZ</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Needs Improvement</t>
+          <t>Meets Expectations</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>146809</v>
+        <v>106176</v>
       </c>
     </row>
     <row r="4">
@@ -585,28 +636,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Elizabeth Johnson</t>
+          <t>Dorothy Perez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Controller</t>
+          <t>Operations Analyst</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>59426</v>
+        <v>96576</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>13840</t>
+          <t>78201</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -620,7 +671,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>96825</v>
+        <v>54449</v>
       </c>
     </row>
     <row r="5">
@@ -631,42 +682,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Steven Brown</t>
+          <t>Patricia Walker</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Customer Service</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Customer Service Rep</t>
+          <t>Sales Representative</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>77515</v>
+        <v>67358</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>92106</t>
+          <t>00000</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>San Diego, CA</t>
+          <t>San Antonio, TX</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Needs Improvement</t>
+          <t>Exceeds Expectations</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>659059</v>
+        <v>1124339</v>
       </c>
     </row>
     <row r="6">
@@ -677,33 +728,33 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Joshua Allen</t>
+          <t>James Rodriguez</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Digital Marketing Analyst</t>
+          <t>Systems Analyst</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>89420</v>
+        <v>85666</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>85430</t>
+          <t>33619-6951</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Dallas, TX</t>
+          <t>San Antonio, TX</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -712,7 +763,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>333287</v>
+        <v>249950</v>
       </c>
     </row>
     <row r="7">
@@ -723,42 +774,42 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>George Adams</t>
+          <t>Jennifer Thompson</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Legal</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Legal Assistant</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>48178</v>
+        <v>104391</v>
       </c>
       <c r="F7" t="n">
         <v>3</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>78206</t>
+          <t>92101</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>San Antonio, TX</t>
+          <t>San Diego, CA</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Meets Expectations</t>
+          <t>Exceptional</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>117401</v>
+        <v>105179</v>
       </c>
     </row>
     <row r="8">
@@ -769,42 +820,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Andrew Clark</t>
+          <t>Joshua Adams</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Legal</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Legal Counsel</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>68897</v>
+        <v>87012</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>92102</t>
+          <t>85002</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>San Diego, CA</t>
+          <t>Phoenix, AZ</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Exceeds Expectations</t>
+          <t>Unsatisfactory</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>235714</v>
+        <v>183606</v>
       </c>
     </row>
     <row r="9">
@@ -815,28 +866,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Emily Jackson</t>
+          <t>Mark King</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Underwriting</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Systems Analyst</t>
+          <t>Underwriting Manager</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>97038</v>
+        <v>118973</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>75201</t>
+          <t>75204</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -846,11 +897,11 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Unsatisfactory</t>
+          <t>Exceeds Expectations</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>63241</v>
+        <v>120742</v>
       </c>
     </row>
     <row r="10">
@@ -861,33 +912,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Karen Mitchell</t>
+          <t>John Perez</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>96800</v>
+        <v>109683</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>70727</t>
-        </is>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>Phoenix, AZ</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -896,7 +942,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>211180</v>
+        <v>238657</v>
       </c>
     </row>
     <row r="11">
@@ -907,7 +953,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lisa Miller</t>
+          <t>Lisa Robinson</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -917,32 +963,32 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Underwriter</t>
+          <t>Risk Analyst</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>94104</v>
+        <v>93413</v>
       </c>
       <c r="F11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>11768</t>
+          <t>19103</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>San Antonio, TX</t>
+          <t>Philadelphia, PA</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Exceptional</t>
+          <t>Needs Improvement</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>60851</v>
+        <v>159233</v>
       </c>
     </row>
     <row r="12">
@@ -953,42 +999,40 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Robert Thompson</t>
+          <t>Donna Anderson</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Customer Service</t>
+          <t>Legal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Customer Service Rep</t>
+          <t>Compliance Officer</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>75260</v>
+        <v>55270</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>85007</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7030</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Phoenix, AZ</t>
+          <t>San Jose, CA</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Unsatisfactory</t>
+          <t>Exceptional</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>929046</v>
+        <v>193796</v>
       </c>
     </row>
     <row r="13">
@@ -999,42 +1043,42 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Amanda Moore</t>
+          <t>Jessica Lee</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Customer Service</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Customer Service Rep</t>
+          <t>Insurance Agent</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>79014</v>
+        <v>65474</v>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>67068-3510</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>Chicago, IL</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Exceptional</t>
+          <t>Exceeds Expectations</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>496635</v>
+        <v>1518990</v>
       </c>
     </row>
     <row r="14">
@@ -1045,42 +1089,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Linda Martin</t>
+          <t>Michelle Carter</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Customer Service</t>
+          <t>Human Resources</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Client Relationship Manager</t>
+          <t>Recruiter</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>118005</v>
+        <v>82449</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>62290</t>
+          <t>NFNLN</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Phoenix, AZ</t>
+          <t>San Jose, CA</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Unsatisfactory</t>
+          <t>Exceeds Expectations</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>358728</v>
+        <v>72429</v>
       </c>
     </row>
     <row r="15">
@@ -1091,42 +1135,42 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Kevin Anderson</t>
+          <t>Kenneth Lewis</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Human Resources</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Benefits Administrator</t>
+          <t>Financial Analyst</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>48508</v>
+        <v>108517</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>77005</t>
+          <t>78205</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Houston, TX</t>
+          <t>San Antonio, TX</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Exceeds Expectations</t>
+          <t>Exceptional</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>94185</v>
+        <v>55669</v>
       </c>
     </row>
     <row r="16">
@@ -1137,42 +1181,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sandra Martinez</t>
+          <t>Ashley Carter</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Claims Processing</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Claims Specialist</t>
+          <t>Customer Service Manager</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>89820</v>
+        <v>104151</v>
       </c>
       <c r="F16" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>95107</t>
+          <t>77003</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>Houston, TX</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Unsatisfactory</t>
+          <t>Exceeds Expectations</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>71131</v>
+        <v>480699</v>
       </c>
     </row>
     <row r="17">
@@ -1183,42 +1227,42 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Daniel Scott</t>
+          <t>John Garcia</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Claims Processing</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Claims Manager</t>
+          <t>Product Marketing Manager</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>81921</v>
+        <v>99053</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>OLQIJ</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>San Antonio, TX</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Unsatisfactory</t>
+          <t>Exceeds Expectations</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>142415</v>
+        <v>270625</v>
       </c>
     </row>
     <row r="18">
@@ -1229,42 +1273,42 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jessica Harris</t>
+          <t>Robert Williams</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Underwriting</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sales Representative</t>
+          <t>Risk Analyst</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>74267</v>
+        <v>86156</v>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>77005</t>
+          <t>19107</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Houston, TX</t>
+          <t>Philadelphia, PA</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Unsatisfactory</t>
+          <t>Exceeds Expectations</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1430521</v>
+        <v>246437</v>
       </c>
     </row>
     <row r="19">
@@ -1275,42 +1319,40 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Carol Gonzalez</t>
+          <t>Paul Smith</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Legal</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Compliance Officer</t>
+          <t>Customer Service Rep</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>76826</v>
+        <v>76129</v>
       </c>
       <c r="F19" t="n">
-        <v>17</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>99999</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="G19" t="n">
+        <v>9132</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>Phoenix, AZ</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Exceptional</t>
+          <t>Meets Expectations</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>98021</v>
+        <v>763431</v>
       </c>
     </row>
     <row r="20">
@@ -1321,42 +1363,42 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Susan Young</t>
+          <t>Carol Harris</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Human Resources</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Benefits Administrator</t>
+          <t>Client Relationship Manager</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>87658</v>
+        <v>108890</v>
       </c>
       <c r="F20" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11260</t>
+          <t>00000</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>Philadelphia, PA</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Exceptional</t>
+          <t>Meets Expectations</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>238258</v>
+        <v>980362</v>
       </c>
     </row>
     <row r="21">
@@ -1367,42 +1409,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>James Hernandez</t>
+          <t>Joseph Jackson</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Human Resources</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HR Specialist</t>
+          <t>IT Specialist</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>75012</v>
+        <v>57840</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19101</t>
+          <t>90001</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Philadelphia, PA</t>
+          <t>Los Angeles, CA</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Needs Improvement</t>
+          <t>Unsatisfactory</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>96393</v>
+        <v>211097</v>
       </c>
     </row>
     <row r="22">
@@ -1413,33 +1455,33 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Michael Clark</t>
+          <t>Michelle Wright</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Customer Service</t>
+          <t>Human Resources</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Customer Service Manager</t>
+          <t>Benefits Administrator</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>127839</v>
+        <v>54411</v>
       </c>
       <c r="F22" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>95102</t>
+          <t>57480-6151</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>Los Angeles, CA</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1448,7 +1490,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>442056</v>
+        <v>137027</v>
       </c>
     </row>
     <row r="23">
@@ -1459,33 +1501,33 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>David Gonzalez</t>
+          <t>Joseph Jones</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Customer Service</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Customer Service Rep</t>
+          <t>Marketing Specialist</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>72372</v>
+        <v>68722</v>
       </c>
       <c r="F23" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>90004</t>
+          <t>19104</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Los Angeles, CA</t>
+          <t>Philadelphia, PA</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1494,7 +1536,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>772133</v>
+        <v>535547</v>
       </c>
     </row>
     <row r="24">
@@ -1505,42 +1547,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Lisa Martinez</t>
+          <t>Michelle Garcia</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Underwriting</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Underwriter</t>
+          <t>Operations Analyst</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>95808</v>
+        <v>75860</v>
       </c>
       <c r="F24" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>92107</t>
+          <t>78202</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>San Diego, CA</t>
+          <t>San Antonio, TX</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Meets Expectations</t>
+          <t>Unsatisfactory</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>212031</v>
+        <v>245147</v>
       </c>
     </row>
     <row r="25">
@@ -1551,42 +1593,42 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>David Lee</t>
+          <t>David King</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Customer Service</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Customer Service Manager</t>
+          <t>Sales Manager</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>120495</v>
+        <v>122706</v>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>19107</t>
+          <t>10007</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Philadelphia, PA</t>
+          <t>New York, NY</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Unsatisfactory</t>
+          <t>Meets Expectations</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>246380</v>
+        <v>1349549</v>
       </c>
     </row>
     <row r="26">
@@ -1597,7 +1639,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Andrew Roberts</t>
+          <t>Ashley Brown</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1607,32 +1649,32 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Customer Service Manager</t>
+          <t>Client Relationship Manager</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>92457</v>
+        <v>113787</v>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>57069</t>
+          <t>10004</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Houston, TX</t>
+          <t>New York, NY</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Exceeds Expectations</t>
+          <t>Exceptional</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>484427</v>
+        <v>272505</v>
       </c>
     </row>
     <row r="27">
@@ -1643,42 +1685,42 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Brian Miller</t>
+          <t>Dorothy Taylor</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Legal</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Regulatory Specialist</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>121291</v>
+        <v>49561</v>
       </c>
       <c r="F27" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>78207</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>San Diego, CA</t>
+          <t>San Antonio, TX</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Meets Expectations</t>
+          <t>Needs Improvement</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>56777</v>
+        <v>98420</v>
       </c>
     </row>
     <row r="28">
@@ -1689,42 +1731,42 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Michael Martinez</t>
+          <t>George Wright</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Network Administrator</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>73373</v>
+        <v>88857</v>
       </c>
       <c r="F28" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>78205</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Philadelphia, PA</t>
+          <t>San Antonio, TX</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Needs Improvement</t>
+          <t>Meets Expectations</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>75091</v>
+        <v>53176</v>
       </c>
     </row>
     <row r="29">
@@ -1735,28 +1777,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Thomas Rodriguez</t>
+          <t>John Williams</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sales Manager</t>
+          <t>Marketing Manager</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>108218</v>
+        <v>112902</v>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>85007</t>
+          <t>57406-2397</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1766,11 +1808,11 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Exceeds Expectations</t>
+          <t>Meets Expectations</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>1568830</v>
+        <v>500136</v>
       </c>
     </row>
     <row r="30">
@@ -1781,42 +1823,42 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Robert Anderson</t>
+          <t>Carol Johnson</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Underwriting</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Financial Analyst</t>
+          <t>Underwriting Manager</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>79171</v>
+        <v>129754</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>75205</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>Dallas, TX</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Exceptional</t>
+          <t>Needs Improvement</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>154187</v>
+        <v>198371</v>
       </c>
     </row>
     <row r="31">
@@ -1827,42 +1869,42 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Carol Robinson</t>
+          <t>Sarah White</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Legal</t>
+          <t>Claims Processing</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Regulatory Specialist</t>
+          <t>Claims Manager</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>62462</v>
+        <v>118675</v>
       </c>
       <c r="F31" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>70300</t>
+          <t>60606</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dallas, TX</t>
+          <t>Chicago, IL</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Unsatisfactory</t>
+          <t>Exceptional</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>238027</v>
+        <v>153302</v>
       </c>
     </row>
     <row r="32">
@@ -1873,33 +1915,33 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Daniel Nelson</t>
+          <t>Sarah Gonzalez</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Underwriting</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Risk Analyst</t>
+          <t>Network Administrator</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>85973</v>
+        <v>67167</v>
       </c>
       <c r="F32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>92104</t>
+          <t>23671-3871</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>San Diego, CA</t>
+          <t>Los Angeles, CA</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1908,7 +1950,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>93024</v>
+        <v>52025</v>
       </c>
     </row>
     <row r="33">
@@ -1919,42 +1961,42 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Kevin Adams</t>
+          <t>Andrew Miller</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Operations Analyst</t>
+          <t>Account Executive</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>97307</v>
+        <v>81538</v>
       </c>
       <c r="F33" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>48036</t>
+          <t>19102</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Los Angeles, CA</t>
+          <t>Philadelphia, PA</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Unsatisfactory</t>
+          <t>Needs Improvement</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>221748</v>
+        <v>1891991</v>
       </c>
     </row>
     <row r="34">
@@ -1965,28 +2007,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Karen Perez</t>
+          <t>George Wright</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Underwriting</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Underwriting Manager</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>64690</v>
+        <v>124299</v>
       </c>
       <c r="F34" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>19105</t>
+          <t>19104</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1996,11 +2038,11 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Needs Improvement</t>
+          <t>Exceeds Expectations</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>246123</v>
+        <v>169041</v>
       </c>
     </row>
     <row r="35">
@@ -2011,42 +2053,42 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Jessica Lopez</t>
+          <t>Lisa Martin</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Human Resources</t>
+          <t>Claims Processing</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Benefits Administrator</t>
+          <t>Claims Adjuster</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>65174</v>
+        <v>83712</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>47319</t>
+          <t>75207</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Chicago, IL</t>
+          <t>Dallas, TX</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Unsatisfactory</t>
+          <t>Needs Improvement</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>121572</v>
+        <v>103962</v>
       </c>
     </row>
     <row r="36">
@@ -2057,42 +2099,42 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Paul Williams</t>
+          <t>Nancy Wright</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Customer Service</t>
+          <t>Claims Processing</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Customer Service Manager</t>
+          <t>Claims Analyst</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>120664</v>
+        <v>84118</v>
       </c>
       <c r="F36" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>48275</t>
+          <t>48429-9156</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>Phoenix, AZ</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Exceptional</t>
+          <t>Meets Expectations</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>906553</v>
+        <v>73261</v>
       </c>
     </row>
     <row r="37">
@@ -2103,42 +2145,42 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Charles Hill</t>
+          <t>Dorothy Green</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Customer Service</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Customer Service Rep</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>55122</v>
+        <v>69163</v>
       </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>90842</t>
+          <t>00000</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>San Diego, CA</t>
+          <t>New York, NY</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Meets Expectations</t>
+          <t>Exceeds Expectations</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>230133</v>
+        <v>52879</v>
       </c>
     </row>
     <row r="38">
@@ -2149,7 +2191,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>James Taylor</t>
+          <t>Linda Johnson</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2159,23 +2201,23 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Claims Analyst</t>
+          <t>Claims Manager</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>106655</v>
+        <v>115125</v>
       </c>
       <c r="F38" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>85007</t>
+          <t>00000</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Phoenix, AZ</t>
+          <t>Dallas, TX</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2184,7 +2226,7 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>84275</v>
+        <v>85978</v>
       </c>
     </row>
     <row r="39">
@@ -2195,7 +2237,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Carol Anderson</t>
+          <t>Kevin Wilson</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2205,32 +2247,32 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Operations Analyst</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>85247</v>
+        <v>105051</v>
       </c>
       <c r="F39" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>36643</t>
+          <t>SPYPJ</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Philadelphia, PA</t>
+          <t>San Diego, CA</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Needs Improvement</t>
+          <t>Unsatisfactory</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>236000</v>
+        <v>154043</v>
       </c>
     </row>
     <row r="40">
@@ -2241,42 +2283,42 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>John King</t>
+          <t>David Hill</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Human Resources</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Recruiter</t>
+          <t>Sales Representative</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>76907</v>
+        <v>54925</v>
       </c>
       <c r="F40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>19105</t>
+          <t>67778-9897</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Philadelphia, PA</t>
+          <t>Chicago, IL</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Unsatisfactory</t>
+          <t>Exceptional</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>50147</v>
+        <v>848545</v>
       </c>
     </row>
     <row r="41">
@@ -2287,33 +2329,31 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Michelle Williams</t>
+          <t>Sandra Rodriguez</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Underwriting</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Underwriter</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>105764</v>
+        <v>97036</v>
       </c>
       <c r="F41" t="n">
-        <v>13</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>49430</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5542</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Los Angeles, CA</t>
+          <t>San Jose, CA</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2322,7 +2362,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>230064</v>
+        <v>129289</v>
       </c>
     </row>
     <row r="42">
@@ -2333,42 +2373,40 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mark Davis</t>
+          <t>Carol Jackson</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Claims Processing</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Claims Specialist</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>63000</v>
+        <v>68256</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>10004</t>
-        </is>
+        <v>16</v>
+      </c>
+      <c r="G42" t="n">
+        <v>608635658</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>Phoenix, AZ</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Exceptional</t>
+          <t>Unsatisfactory</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>88235</v>
+        <v>207664</v>
       </c>
     </row>
     <row r="43">
@@ -2379,42 +2417,42 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Richard Walker</t>
+          <t>Patricia Green</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Claims Processing</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Claims Manager</t>
+          <t>Customer Service Manager</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>91296</v>
+        <v>112798</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>60602</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>Chicago, IL</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Exceeds Expectations</t>
+          <t>Needs Improvement</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>244000</v>
+        <v>865006</v>
       </c>
     </row>
     <row r="44">
@@ -2425,42 +2463,42 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Daniel White</t>
+          <t>Susan Wright</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Human Resources</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>HR Specialist</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>72011</v>
+        <v>112383</v>
       </c>
       <c r="F44" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>78206</t>
+          <t>92105</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>San Antonio, TX</t>
+          <t>San Diego, CA</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Needs Improvement</t>
+          <t>Meets Expectations</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>172487</v>
+        <v>163066</v>
       </c>
     </row>
     <row r="45">
@@ -2471,42 +2509,42 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Margaret Martinez</t>
+          <t>George Martinez</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Claims Processing</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Claims Specialist</t>
+          <t>Marketing Specialist</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>82751</v>
+        <v>72182</v>
       </c>
       <c r="F45" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>60606</t>
+          <t>46773-3068</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Chicago, IL</t>
+          <t>San Diego, CA</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Exceeds Expectations</t>
+          <t>Needs Improvement</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>212210</v>
+        <v>581811</v>
       </c>
     </row>
     <row r="46">
@@ -2517,33 +2555,33 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Melissa Roberts</t>
+          <t>Steven Roberts</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Underwriting</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Underwriting Manager</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>125236</v>
+        <v>125921</v>
       </c>
       <c r="F46" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>39220</t>
+          <t>10006</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Chicago, IL</t>
+          <t>New York, NY</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2552,7 +2590,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>158740</v>
+        <v>157177</v>
       </c>
     </row>
     <row r="47">
@@ -2563,42 +2601,42 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>John Allen</t>
+          <t>Sandra Smith</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Controller</t>
+          <t>Customer Service Rep</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>61908</v>
+        <v>67805</v>
       </c>
       <c r="F47" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>65050</t>
+          <t>10007</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>San Antonio, TX</t>
+          <t>New York, NY</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Exceptional</t>
+          <t>Unsatisfactory</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>91083</v>
+        <v>468542</v>
       </c>
     </row>
     <row r="48">
@@ -2609,42 +2647,42 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Thomas Robinson</t>
+          <t>Paul Wilson</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Customer Service</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Client Relationship Manager</t>
+          <t>Product Marketing Manager</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>101758</v>
+        <v>113631</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>75201</t>
+          <t>85007</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Dallas, TX</t>
+          <t>Phoenix, AZ</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Exceeds Expectations</t>
+          <t>Meets Expectations</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>256170</v>
+        <v>420670</v>
       </c>
     </row>
     <row r="49">
@@ -2655,42 +2693,42 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Emily Wilson</t>
+          <t>William Williams</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Claims Processing</t>
+          <t>Legal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Claims Manager</t>
+          <t>Legal Assistant</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>105084</v>
+        <v>77456</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>27030</t>
+          <t>92103</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>San Diego, CA</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Exceptional</t>
+          <t>Meets Expectations</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>218757</v>
+        <v>71901</v>
       </c>
     </row>
     <row r="50">
@@ -2701,42 +2739,37 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Elizabeth Lee</t>
+          <t>David Rodriguez</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Human Resources</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Systems Analyst</t>
+          <t>Recruiter</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>104714</v>
+        <v>61688</v>
       </c>
       <c r="F50" t="n">
-        <v>11</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>60602</t>
-        </is>
+        <v>15</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Chicago, IL</t>
+          <t>San Diego, CA</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Meets Expectations</t>
+          <t>Exceeds Expectations</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>176838</v>
+        <v>236579</v>
       </c>
     </row>
     <row r="51">
@@ -2747,42 +2780,42 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Michelle Scott</t>
+          <t>Melissa Roberts</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Legal</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Regulatory Specialist</t>
+          <t>Customer Service Manager</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>65732</v>
+        <v>107404</v>
       </c>
       <c r="F51" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>37827</t>
+          <t>92102</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Chicago, IL</t>
+          <t>San Diego, CA</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Exceeds Expectations</t>
+          <t>Meets Expectations</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>212435</v>
+        <v>785720</v>
       </c>
     </row>
     <row r="52">
@@ -2793,42 +2826,42 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>John Williams</t>
+          <t>Kevin Hall</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Human Resources</t>
+          <t>Claims Processing</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>HR Manager</t>
+          <t>Claims Manager</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>128669</v>
+        <v>105986</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>85001</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Houston, TX</t>
+          <t>Phoenix, AZ</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Exceptional</t>
+          <t>Meets Expectations</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>183716</v>
+        <v>125072</v>
       </c>
     </row>
     <row r="53">
@@ -2839,33 +2872,33 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Paul Nelson</t>
+          <t>Steven Robinson</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>IT Specialist</t>
+          <t>Controller</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>51711</v>
+        <v>73941</v>
       </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>75201</t>
+          <t>77004</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Dallas, TX</t>
+          <t>Houston, TX</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2874,7 +2907,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>136379</v>
+        <v>180735</v>
       </c>
     </row>
     <row r="54">
@@ -2885,42 +2918,42 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Linda Jones</t>
+          <t>Carol Robinson</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Operations Analyst</t>
+          <t>Network Administrator</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>87762</v>
+        <v>72687</v>
       </c>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>19105</t>
+          <t>75201</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Philadelphia, PA</t>
+          <t>Dallas, TX</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Needs Improvement</t>
+          <t>Unsatisfactory</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>236185</v>
+        <v>174569</v>
       </c>
     </row>
     <row r="55">
@@ -2931,42 +2964,42 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Richard Wright</t>
+          <t>William Scott</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Sales Representative</t>
+          <t>Operations Analyst</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>63817</v>
+        <v>105163</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>19107</t>
+          <t>95107</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Philadelphia, PA</t>
+          <t>San Jose, CA</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Needs Improvement</t>
+          <t>Meets Expectations</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1688275</v>
+        <v>211451</v>
       </c>
     </row>
     <row r="56">
@@ -2977,42 +3010,42 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Mark King</t>
+          <t>Kenneth Perez</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Claims Processing</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>IT Specialist</t>
+          <t>Claims Manager</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>65877</v>
+        <v>98809</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>60602</t>
+          <t>53521-4327</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Chicago, IL</t>
+          <t>New York, NY</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Exceptional</t>
+          <t>Exceeds Expectations</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>173317</v>
+        <v>249718</v>
       </c>
     </row>
     <row r="57">
@@ -3023,42 +3056,42 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Joshua Moore</t>
+          <t>Lisa Moore</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Customer Service</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Customer Service Rep</t>
+          <t>Operations Analyst</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>47619</v>
+        <v>82046</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>77050</t>
+          <t>00000</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>Chicago, IL</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Needs Improvement</t>
+          <t>Meets Expectations</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>350398</v>
+        <v>158698</v>
       </c>
     </row>
     <row r="58">
@@ -3069,42 +3102,42 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Linda Wright</t>
+          <t>Paul Thomas</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Human Resources</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Product Marketing Manager</t>
+          <t>HR Manager</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>91003</v>
+        <v>123021</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>92105</t>
+          <t>90004</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>San Diego, CA</t>
+          <t>Los Angeles, CA</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Needs Improvement</t>
+          <t>Exceeds Expectations</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>877153</v>
+        <v>133447</v>
       </c>
     </row>
     <row r="59">
@@ -3115,42 +3148,42 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Richard Jones</t>
+          <t>Andrew Martinez</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Claims Processing</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Claims Specialist</t>
+          <t>Operations Analyst</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>81756</v>
+        <v>96595</v>
       </c>
       <c r="F59" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>70960</t>
+          <t>62421E</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>San Diego, CA</t>
+          <t>Phoenix, AZ</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Exceptional</t>
+          <t>Exceeds Expectations</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>97494</v>
+        <v>77478</v>
       </c>
     </row>
     <row r="60">
@@ -3161,33 +3194,33 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Mary Harris</t>
+          <t>David Jackson</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Human Resources</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>HR Specialist</t>
+          <t>Client Relationship Manager</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>66158</v>
+        <v>97123</v>
       </c>
       <c r="F60" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>32480</t>
+          <t>10004</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>San Diego, CA</t>
+          <t>New York, NY</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3196,7 +3229,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>228871</v>
+        <v>962473</v>
       </c>
     </row>
     <row r="61">
@@ -3207,33 +3240,33 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Charles Robinson</t>
+          <t>Amanda Scott</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Claims Processing</t>
+          <t>Human Resources</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Claims Analyst</t>
+          <t>HR Manager</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>106608</v>
+        <v>98878</v>
       </c>
       <c r="F61" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>91260</t>
+          <t>77007</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>Houston, TX</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3242,7 +3275,7 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>104537</v>
+        <v>85725</v>
       </c>
     </row>
     <row r="62">
@@ -3253,42 +3286,37 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Jessica Brown</t>
+          <t>Paul Lopez</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Legal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Product Marketing Manager</t>
+          <t>Regulatory Specialist</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100972</v>
+        <v>75775</v>
       </c>
       <c r="F62" t="n">
         <v>19</v>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>64869</t>
-        </is>
-      </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Dallas, TX</t>
+          <t>Houston, TX</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Unsatisfactory</t>
+          <t>Exceptional</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>974676</v>
+        <v>83000</v>
       </c>
     </row>
     <row r="63">
@@ -3299,42 +3327,40 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Carol Smith</t>
+          <t>Joshua Brown</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Claims Processing</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Marketing Specialist</t>
+          <t>Claims Specialist</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>66597</v>
+        <v>65293</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>95101</t>
-        </is>
+        <v>19</v>
+      </c>
+      <c r="G63" t="n">
+        <v>9900</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>San Diego, CA</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Unsatisfactory</t>
+          <t>Meets Expectations</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>384696</v>
+        <v>146889</v>
       </c>
     </row>
     <row r="64">
@@ -3345,7 +3371,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Jennifer Lopez</t>
+          <t>Mary Martinez</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3355,32 +3381,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>IT Specialist</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>74290</v>
+        <v>93573</v>
       </c>
       <c r="F64" t="n">
-        <v>12</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>95107</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="G64" t="n">
+        <v>8482</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>Los Angeles, CA</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Needs Improvement</t>
+          <t>Unsatisfactory</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>151108</v>
+        <v>153059</v>
       </c>
     </row>
     <row r="65">
@@ -3391,42 +3415,42 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Richard Hill</t>
+          <t>Steven Roberts</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Underwriting</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Senior Underwriter</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>93655</v>
+        <v>87170</v>
       </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>64780</t>
+          <t>77003</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>San Diego, CA</t>
+          <t>Houston, TX</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Exceptional</t>
+          <t>Needs Improvement</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>219833</v>
+        <v>54593</v>
       </c>
     </row>
     <row r="66">
@@ -3437,33 +3461,33 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sarah Moore</t>
+          <t>Donna Smith</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Legal</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Marketing Specialist</t>
+          <t>Compliance Officer</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>71580</v>
+        <v>68258</v>
       </c>
       <c r="F66" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>95103</t>
+          <t>75207</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>Dallas, TX</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3472,7 +3496,7 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>946201</v>
+        <v>68221</v>
       </c>
     </row>
     <row r="67">
@@ -3483,42 +3507,42 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Jennifer Thompson</t>
+          <t>Amanda Thomas</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Marketing Specialist</t>
+          <t>Sales Manager</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>71165</v>
+        <v>101856</v>
       </c>
       <c r="F67" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>78206</t>
+          <t>00000</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>San Antonio, TX</t>
+          <t>New York, NY</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Unsatisfactory</t>
+          <t>Exceeds Expectations</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>498049</v>
+        <v>914990</v>
       </c>
     </row>
     <row r="68">
@@ -3529,33 +3553,33 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Joseph Williams</t>
+          <t>Carol King</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Claims Processing</t>
+          <t>Legal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Claims Analyst</t>
+          <t>Legal Assistant</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>70433</v>
+        <v>82411</v>
       </c>
       <c r="F68" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>19050</t>
+          <t>12638-4797</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>San Jose, CA</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3564,7 +3588,7 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>123981</v>
+        <v>67798</v>
       </c>
     </row>
     <row r="69">
@@ -3575,33 +3599,33 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Joshua Hall</t>
+          <t>Margaret Green</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Insurance Agent</t>
+          <t>Financial Analyst</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>62164</v>
+        <v>85463</v>
       </c>
       <c r="F69" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>47273</t>
+          <t>39139-7642</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>San Diego, CA</t>
+          <t>San Jose, CA</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3610,7 +3634,7 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1275004</v>
+        <v>90968</v>
       </c>
     </row>
     <row r="70">
@@ -3621,42 +3645,42 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Amanda Lewis</t>
+          <t>Charles Scott</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Operations Analyst</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>105133</v>
+        <v>122491</v>
       </c>
       <c r="F70" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>85007</t>
+          <t>19101</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Phoenix, AZ</t>
+          <t>Philadelphia, PA</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Exceeds Expectations</t>
+          <t>Exceptional</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>228199</v>
+        <v>193287</v>
       </c>
     </row>
     <row r="71">
@@ -3667,42 +3691,42 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Kevin Martinez</t>
+          <t>Richard Martinez</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Claims Processing</t>
+          <t>Legal</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Claims Adjuster</t>
+          <t>Legal Counsel</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>69713</v>
+        <v>70716</v>
       </c>
       <c r="F71" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>90001</t>
+          <t>38244P</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Los Angeles, CA</t>
+          <t>Phoenix, AZ</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Meets Expectations</t>
+          <t>Exceptional</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>130217</v>
+        <v>193718</v>
       </c>
     </row>
     <row r="72">
@@ -3713,42 +3737,42 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Lisa Carter</t>
+          <t>Melissa Brown</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Sales Representative</t>
+          <t>Marketing Specialist</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>68235</v>
+        <v>82749</v>
       </c>
       <c r="F72" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>77001</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>San Diego, CA</t>
+          <t>Houston, TX</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Needs Improvement</t>
+          <t>Meets Expectations</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1222556</v>
+        <v>268726</v>
       </c>
     </row>
     <row r="73">
@@ -3759,33 +3783,33 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Amanda Williams</t>
+          <t>Paul Jones</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Human Resources</t>
+          <t>Legal</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Recruiter</t>
+          <t>Legal Assistant</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>63175</v>
+        <v>57945</v>
       </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>11815</t>
+          <t>PGUSO</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Phoenix, AZ</t>
+          <t>San Antonio, TX</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3794,7 +3818,7 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>92378</v>
+        <v>100098</v>
       </c>
     </row>
     <row r="74">
@@ -3805,42 +3829,42 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Margaret Mitchell</t>
+          <t>John Johnson</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Human Resources</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Benefits Administrator</t>
+          <t>Operations Manager</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>60282</v>
+        <v>100522</v>
       </c>
       <c r="F74" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>19103</t>
+          <t>00000</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Philadelphia, PA</t>
+          <t>San Antonio, TX</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Exceptional</t>
+          <t>Exceeds Expectations</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>128200</v>
+        <v>183799</v>
       </c>
     </row>
     <row r="75">
@@ -3851,28 +3875,28 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Ashley Allen</t>
+          <t>Robert White</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Underwriting</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Risk Analyst</t>
+          <t>Systems Analyst</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>92104</v>
+        <v>92273</v>
       </c>
       <c r="F75" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>92103</t>
+          <t>00000</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3882,11 +3906,11 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Meets Expectations</t>
+          <t>Exceptional</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>80571</v>
+        <v>241680</v>
       </c>
     </row>
     <row r="76">
@@ -3897,29 +3921,27 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>John Lopez</t>
+          <t>Jennifer Clark</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Underwriting</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Sales Manager</t>
+          <t>Risk Analyst</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>85450</v>
+        <v>79452</v>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>77005</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="G76" t="n">
+        <v>703552694</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3928,11 +3950,11 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Unsatisfactory</t>
+          <t>Meets Expectations</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1069199</v>
+        <v>164056</v>
       </c>
     </row>
     <row r="77">
@@ -3943,33 +3965,33 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Jennifer Miller</t>
+          <t>William Mitchell</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Claims Processing</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Insurance Agent</t>
+          <t>Claims Manager</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>65851</v>
+        <v>90489</v>
       </c>
       <c r="F77" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>75202</t>
+          <t>95103</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Dallas, TX</t>
+          <t>San Jose, CA</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -3978,7 +4000,7 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1763979</v>
+        <v>163143</v>
       </c>
     </row>
     <row r="78">
@@ -3989,42 +4011,40 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Charles Nelson</t>
+          <t>Patricia Taylor</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Marketing Manager</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>118942</v>
+        <v>103593</v>
       </c>
       <c r="F78" t="n">
-        <v>14</v>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>60604</t>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="G78" t="n">
+        <v>228619360</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Chicago, IL</t>
+          <t>Houston, TX</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Exceeds Expectations</t>
+          <t>Meets Expectations</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>481166</v>
+        <v>158441</v>
       </c>
     </row>
     <row r="79">
@@ -4035,33 +4055,33 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Jessica Lewis</t>
+          <t>Nancy Allen</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Underwriting</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Financial Analyst</t>
+          <t>Risk Analyst</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>72547</v>
+        <v>79892</v>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>90001</t>
+          <t>95102</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Los Angeles, CA</t>
+          <t>San Jose, CA</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4070,7 +4090,7 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>153588</v>
+        <v>178667</v>
       </c>
     </row>
     <row r="80">
@@ -4081,33 +4101,33 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Emily Taylor</t>
+          <t>Margaret Miller</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Claims Processing</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Claims Analyst</t>
+          <t>Customer Service Manager</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>81912</v>
+        <v>102651</v>
       </c>
       <c r="F80" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>94800</t>
+          <t>96373-2985</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Phoenix, AZ</t>
+          <t>San Antonio, TX</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4116,7 +4136,7 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>110374</v>
+        <v>684534</v>
       </c>
     </row>
     <row r="81">
@@ -4127,42 +4147,42 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Richard Martinez</t>
+          <t>Carol Wright</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Client Relationship Manager</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>51204</v>
+        <v>116454</v>
       </c>
       <c r="F81" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>19103</t>
+          <t>92103</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Philadelphia, PA</t>
+          <t>San Diego, CA</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Unsatisfactory</t>
+          <t>Needs Improvement</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>106698</v>
+        <v>231420</v>
       </c>
     </row>
     <row r="82">
@@ -4173,42 +4193,42 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Sarah Turner</t>
+          <t>Emily Anderson</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Claims Processing</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Product Marketing Manager</t>
+          <t>Claims Analyst</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>122341</v>
+        <v>90781</v>
       </c>
       <c r="F82" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>85005</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Los Angeles, CA</t>
+          <t>Phoenix, AZ</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Meets Expectations</t>
+          <t>Exceeds Expectations</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>681786</v>
+        <v>148966</v>
       </c>
     </row>
     <row r="83">
@@ -4219,28 +4239,28 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Charles Lewis</t>
+          <t>Dorothy Smith</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Customer Service</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Customer Service Manager</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>110710</v>
+        <v>109093</v>
       </c>
       <c r="F83" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>68559</t>
+          <t>19106</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4250,11 +4270,11 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Exceeds Expectations</t>
+          <t>Needs Improvement</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>653125</v>
+        <v>110720</v>
       </c>
     </row>
     <row r="84">
@@ -4265,42 +4285,42 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>William Miller</t>
+          <t>Jennifer Lewis</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Claims Processing</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Insurance Agent</t>
+          <t>Claims Specialist</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>77658</v>
+        <v>67308</v>
       </c>
       <c r="F84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>KGPFH</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>Dallas, TX</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Meets Expectations</t>
+          <t>Exceeds Expectations</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1321314</v>
+        <v>84500</v>
       </c>
     </row>
     <row r="85">
@@ -4311,33 +4331,33 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Michael Carter</t>
+          <t>Lisa Roberts</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Customer Service</t>
+          <t>Claims Processing</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Customer Service Manager</t>
+          <t>Claims Adjuster</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>93782</v>
+        <v>58606</v>
       </c>
       <c r="F85" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>28642-5174</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Houston, TX</t>
+          <t>San Jose, CA</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4346,7 +4366,7 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>830563</v>
+        <v>160608</v>
       </c>
     </row>
     <row r="86">
@@ -4357,7 +4377,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Elizabeth Hall</t>
+          <t>James Wilson</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4371,28 +4391,28 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>52529</v>
+        <v>71951</v>
       </c>
       <c r="F86" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>71182O</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Houston, TX</t>
+          <t>Phoenix, AZ</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Unsatisfactory</t>
+          <t>Exceeds Expectations</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>195059</v>
+        <v>231629</v>
       </c>
     </row>
     <row r="87">
@@ -4403,33 +4423,28 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Elizabeth Green</t>
+          <t>Charles Johnson</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Human Resources</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Recruiter</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>55856</v>
+        <v>92903</v>
       </c>
       <c r="F87" t="n">
-        <v>7</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>90003</t>
-        </is>
+        <v>12</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Los Angeles, CA</t>
+          <t>San Antonio, TX</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4438,7 +4453,7 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>123961</v>
+        <v>172089</v>
       </c>
     </row>
     <row r="88">
@@ -4449,7 +4464,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Karen Jackson</t>
+          <t>Robert White</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4459,32 +4474,32 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Claims Analyst</t>
+          <t>Claims Specialist</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>83267</v>
+        <v>58594</v>
       </c>
       <c r="F88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>78207</t>
+          <t>60605</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>San Antonio, TX</t>
+          <t>Chicago, IL</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Exceptional</t>
+          <t>Meets Expectations</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>155364</v>
+        <v>154395</v>
       </c>
     </row>
     <row r="89">
@@ -4495,33 +4510,33 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Richard Martinez</t>
+          <t>Dorothy Nelson</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Human Resources</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Benefits Administrator</t>
+          <t>Marketing Manager</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>57899</v>
+        <v>91334</v>
       </c>
       <c r="F89" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>78202</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>San Antonio, TX</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4530,7 +4545,7 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>228581</v>
+        <v>557546</v>
       </c>
     </row>
     <row r="90">
@@ -4541,42 +4556,40 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Patricia White</t>
+          <t>Joshua Lewis</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Legal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Sales Representative</t>
+          <t>Legal Counsel</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>64841</v>
+        <v>60553</v>
       </c>
       <c r="F90" t="n">
-        <v>11</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>85004</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="G90" t="n">
+        <v>774678445</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Phoenix, AZ</t>
+          <t>Chicago, IL</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Meets Expectations</t>
+          <t>Unsatisfactory</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>570905</v>
+        <v>201696</v>
       </c>
     </row>
     <row r="91">
@@ -4587,42 +4600,42 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Jennifer Thompson</t>
+          <t>Mary Smith</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Legal</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Legal Counsel</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>80744</v>
+        <v>58297</v>
       </c>
       <c r="F91" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>75205</t>
+          <t>10001</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Dallas, TX</t>
+          <t>New York, NY</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Unsatisfactory</t>
+          <t>Needs Improvement</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>143886</v>
+        <v>200405</v>
       </c>
     </row>
     <row r="92">
@@ -4633,28 +4646,28 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>James Perez</t>
+          <t>Sandra Scott</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Human Resources</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Benefits Administrator</t>
+          <t>IT Specialist</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>63024</v>
+        <v>80627</v>
       </c>
       <c r="F92" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>67778</t>
+          <t>40086Q</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4664,11 +4677,11 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Meets Expectations</t>
+          <t>Exceeds Expectations</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>194507</v>
+        <v>179493</v>
       </c>
     </row>
     <row r="93">
@@ -4679,7 +4692,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ashley Lewis</t>
+          <t>Lisa Gonzalez</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4693,19 +4706,19 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>99797</v>
+        <v>117209</v>
       </c>
       <c r="F93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>95106</t>
+          <t>77006</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>Houston, TX</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4714,7 +4727,7 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>240622</v>
+        <v>166253</v>
       </c>
     </row>
     <row r="94">
@@ -4725,42 +4738,42 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Michael Allen</t>
+          <t>Joshua Young</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Claims Processing</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Claims Manager</t>
+          <t>Account Executive</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>113055</v>
+        <v>80575</v>
       </c>
       <c r="F94" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>78203</t>
+          <t>94076-7174</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>San Antonio, TX</t>
+          <t>Chicago, IL</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Unsatisfactory</t>
+          <t>Exceeds Expectations</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>88790</v>
+        <v>1782233</v>
       </c>
     </row>
     <row r="95">
@@ -4771,7 +4784,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Linda Carter</t>
+          <t>John Davis</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4781,32 +4794,32 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Legal Assistant</t>
+          <t>Regulatory Specialist</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>55644</v>
+        <v>72412</v>
       </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>27396</t>
+          <t>92103</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>San Diego, CA</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Exceptional</t>
+          <t>Exceeds Expectations</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>207814</v>
+        <v>69951</v>
       </c>
     </row>
     <row r="96">
@@ -4817,42 +4830,42 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Michael Robinson</t>
+          <t>Brian Young</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Customer Service</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Client Relationship Manager</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>113628</v>
+        <v>120678</v>
       </c>
       <c r="F96" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>10003</t>
+          <t>90007</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>Los Angeles, CA</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Exceeds Expectations</t>
+          <t>Needs Improvement</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>259396</v>
+        <v>89885</v>
       </c>
     </row>
     <row r="97">
@@ -4863,42 +4876,42 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Linda Young</t>
+          <t>Lisa Harris</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Human Resources</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Product Marketing Manager</t>
+          <t>HR Specialist</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>127603</v>
+        <v>65357</v>
       </c>
       <c r="F97" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>95107</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>San Diego, CA</t>
+          <t>San Jose, CA</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Exceeds Expectations</t>
+          <t>Needs Improvement</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>442012</v>
+        <v>211888</v>
       </c>
     </row>
     <row r="98">
@@ -4909,33 +4922,33 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Kenneth Thomas</t>
+          <t>Margaret Wright</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Claims Processing</t>
+          <t>Legal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Claims Specialist</t>
+          <t>Legal Assistant</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>80006</v>
+        <v>62126</v>
       </c>
       <c r="F98" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>75425</t>
+          <t>00000</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Dallas, TX</t>
+          <t>Houston, TX</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -4944,7 +4957,7 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>121262</v>
+        <v>77771</v>
       </c>
     </row>
     <row r="99">
@@ -4955,42 +4968,42 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>William Smith</t>
+          <t>Elizabeth King</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Underwriting</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Controller</t>
+          <t>Underwriter</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>69639</v>
+        <v>83201</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>77004</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>Houston, TX</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Exceptional</t>
+          <t>Meets Expectations</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>84064</v>
+        <v>229575</v>
       </c>
     </row>
     <row r="100">
@@ -5001,42 +5014,42 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Michael Clark</t>
+          <t>Daniel Turner</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Human Resources</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Benefits Administrator</t>
+          <t>Controller</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>57611</v>
+        <v>54380</v>
       </c>
       <c r="F100" t="n">
         <v>3</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>99999</t>
+          <t>78499T</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Phoenix, AZ</t>
+          <t>Los Angeles, CA</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Unsatisfactory</t>
+          <t>Needs Improvement</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>245855</v>
+        <v>231730</v>
       </c>
     </row>
     <row r="101">
@@ -5047,42 +5060,600 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Jessica Williams</t>
+          <t>Karen Brown</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Claims Processing</t>
+          <t>Human Resources</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Claims Specialist</t>
+          <t>HR Specialist</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>61582</v>
+        <v>64443</v>
       </c>
       <c r="F101" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>10238</t>
+          <t>92101</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>San Diego, CA</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Exceptional</t>
+          <t>Meets Expectations</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>57774</v>
+        <v>53521</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>ZIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>90001</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>78201</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>33619</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>92101</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>85002</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>75204</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>19103</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>67068</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>78205</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>77003</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>19107</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>90001</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>57480</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>19104</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>78202</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>10007</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>10004</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>78207</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>78205</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>57406</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>75205</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>60606</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>23671</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>19102</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>19104</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>75207</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>48429</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>67778</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>60863</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>60602</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>92105</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>46773</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>10006</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>10007</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>85007</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>92103</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>92102</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>85001</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>77004</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>75201</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>95107</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>53521</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>90004</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>62421</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>10004</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>77007</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>77003</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>75207</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>12638</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>39139</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>19101</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>38244</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>77001</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>70355</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>95103</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>22861</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>95102</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>96373</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>92103</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>85005</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>19106</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>28642</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>71182</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>60605</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>78202</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>77467</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>10001</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>40086</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>77006</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>94076</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>92103</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>90007</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="inlineStr">
+        <is>
+          <t>95107</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>77004</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>78499</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>92101</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -7,7 +7,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ZIPs_Only" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="EE">ZIPs_Only!$A$1:$A$77</definedName>
+    <definedName name="EE">'ZIPs_Only'!$A$1:$A$77</definedName>
   </definedNames>
 </workbook>
 </file>
